--- a/RQ2+3+4/kappa_result.xlsx
+++ b/RQ2+3+4/kappa_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Tweet Thesis\Analysis Q2 &amp; Q3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB01F4B9-90A3-407E-BDA0-1C16D62410EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B027C85-BE03-4D93-867D-3B5A53506251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Percent overall agreement</t>
   </si>
@@ -42,9 +42,6 @@
     <t>95% CI for fixed-marginal kappa</t>
   </si>
   <si>
-    <t>Round</t>
-  </si>
-  <si>
     <t>Types</t>
   </si>
   <si>
@@ -57,24 +54,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>[0.59, 0.91]</t>
-  </si>
-  <si>
-    <t>[0.55, 0.87]</t>
-  </si>
-  <si>
-    <t>[0.60, 0.94]</t>
-  </si>
-  <si>
-    <t>[0.43, 0.92]</t>
-  </si>
-  <si>
-    <t>[0.76, 0.99]</t>
-  </si>
-  <si>
-    <t> [0.71, 0.98]</t>
-  </si>
-  <si>
     <t>[0.23, 0.60]</t>
   </si>
   <si>
@@ -93,12 +72,6 @@
     <t>[0.40, 0.61]</t>
   </si>
   <si>
-    <t>[0.69, 0.97]</t>
-  </si>
-  <si>
-    <t>[0.63, 0.93]</t>
-  </si>
-  <si>
     <t>[0.07, 0.29]</t>
   </si>
   <si>
@@ -108,19 +81,55 @@
     <t>[-0.07, 0.30]</t>
   </si>
   <si>
-    <t>[0.67, 0.97]</t>
-  </si>
-  <si>
-    <t>[0.50, 0.98]</t>
-  </si>
-  <si>
-    <t>[0.64, 0.96]</t>
-  </si>
-  <si>
-    <t>[0.57, 0.96]</t>
-  </si>
-  <si>
     <t>Kappa Calculation Result</t>
+  </si>
+  <si>
+    <t> 0.72</t>
+  </si>
+  <si>
+    <t>[0.55, 0.88]</t>
+  </si>
+  <si>
+    <t>[0.51, 0.83]</t>
+  </si>
+  <si>
+    <t>[0.48, 0.85]</t>
+  </si>
+  <si>
+    <t>[0.28, 0.78]</t>
+  </si>
+  <si>
+    <t>[0.59, 0.88]</t>
+  </si>
+  <si>
+    <t>[0.55, 0.80]</t>
+  </si>
+  <si>
+    <t>[0.49, 0.81]</t>
+  </si>
+  <si>
+    <t>[0.42, 0.71]</t>
+  </si>
+  <si>
+    <t>[0.54, 0.86]</t>
+  </si>
+  <si>
+    <t>[0.33, 0.81]</t>
+  </si>
+  <si>
+    <t>[0.56, 0.91]</t>
+  </si>
+  <si>
+    <t>[0.47, 0.88]</t>
+  </si>
+  <si>
+    <t>[0.66, 0.95]</t>
+  </si>
+  <si>
+    <t>[0.66, 0.88]</t>
+  </si>
+  <si>
+    <t>Roundno.</t>
   </si>
 </sst>
 </file>
@@ -136,39 +145,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -178,19 +179,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,61 +201,45 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -275,8 +254,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
+        <sz val="10"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -284,19 +263,10 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -309,8 +279,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
+        <sz val="10"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -318,10 +288,10 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -334,8 +304,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
+        <sz val="10"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -343,38 +313,31 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -387,8 +350,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
+        <sz val="10"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -396,10 +359,10 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -412,8 +375,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
+        <sz val="10"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -421,10 +384,74 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,18 +467,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B35B3F0-7D8D-44FA-B5D4-CE348C2340AE}" name="Table1" displayName="Table1" ref="A5:G17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A5:G17" xr:uid="{0B35B3F0-7D8D-44FA-B5D4-CE348C2340AE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B35B3F0-7D8D-44FA-B5D4-CE348C2340AE}" name="Table1" displayName="Table1" ref="A5:G17" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1C1CE76B-E53B-47DA-880E-1D75196A8592}" name="Types" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{E9D9E891-CBA2-49AD-8B59-E764C8198DFB}" name="Round" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{C8F5BB55-AAF6-4319-B7F2-97AF016A0238}" name="Percent overall agreement" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{017107D8-EB57-42EA-B0C9-7019940F9933}" name="Free-marginal kappa" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{C705E01E-33F3-48AE-B01D-C4815129D467}" name="95% CI for free-marginal kappa" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{0E259A80-223C-46B9-B3BA-5ACD6EB714A7}" name="Fixed-marginal kappa" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{5ED1BA02-7FF8-4DE9-B967-AB519D106D82}" name="95% CI for fixed-marginal kappa" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1C1CE76B-E53B-47DA-880E-1D75196A8592}" name="Types" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{E9D9E891-CBA2-49AD-8B59-E764C8198DFB}" name="Roundno." dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{C8F5BB55-AAF6-4319-B7F2-97AF016A0238}" name="Percent overall agreement" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{017107D8-EB57-42EA-B0C9-7019940F9933}" name="Free-marginal kappa" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{C705E01E-33F3-48AE-B01D-C4815129D467}" name="95% CI for free-marginal kappa" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{0E259A80-223C-46B9-B3BA-5ACD6EB714A7}" name="Fixed-marginal kappa" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{5ED1BA02-7FF8-4DE9-B967-AB519D106D82}" name="95% CI for fixed-marginal kappa" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -718,341 +744,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A3:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="171" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="24.90625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="29.7265625" customWidth="1"/>
-    <col min="6" max="6" width="25.6328125" customWidth="1"/>
-    <col min="7" max="7" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.5867</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.81330000000000002</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.5333</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.34670000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.5867</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.51</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.84</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.78</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.88</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.88</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.5333</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.42</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.36</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.34670000000000001</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.18</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="8">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="8">
-        <v>4</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0.85329999999999995</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.82</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.74</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0.44</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="12">
-        <v>2</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.44</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0.12</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="12">
-        <v>3</v>
-      </c>
-      <c r="C16" s="13">
-        <v>0.82669999999999999</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0.77</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="12">
-        <v>4</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0.85329999999999995</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0.77</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>